--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s3_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s3_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1190.628039029323</v>
+        <v>1087.926521424384</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.004000186920166016</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.34358671860112</v>
+        <v>20.95975887933362</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.7359083153096</v>
+        <v>11.94056287110484</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>776.9000000000029</v>
+        <v>898</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.39</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -675,20 +675,9 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -777,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +777,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -857,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -970,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.467886258478899</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1002,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>29.10400083732547</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +999,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.10400083732547</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +1013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,7 +1048,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1073,7 +1062,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1087,7 +1076,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1101,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1115,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1129,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1143,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1157,10 +1146,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1171,10 +1160,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1182,13 +1171,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1202,7 +1191,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1216,9 +1205,37 @@
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1321,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>54.00999999999964</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1332,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1343,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>56.79499999999963</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1354,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.26999999999964</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1365,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>55.17499999999963</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1376,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>60.3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -1387,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>68.65000000000001</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1398,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>64.71999999999979</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -1409,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>67.17999999999978</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
@@ -1420,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>68.77999999999977</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -1431,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>138.6800000000002</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
@@ -1442,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>130.5650000000002</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
@@ -1453,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>136.5250000000002</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -1464,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>139.2700000000002</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
@@ -1475,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>143.8900000000002</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
@@ -1486,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>127.6200000000001</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -1497,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>144.8550000000001</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24">
@@ -1508,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>145.9100000000001</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -1519,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>137.7700000000001</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
@@ -1530,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>143.3650000000001</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
@@ -1541,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>93.08000000000035</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
@@ -1552,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>91.84000000000037</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29">
@@ -1563,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>94.13000000000036</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -1574,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>101.0950000000004</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -1585,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>102.6250000000004</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
@@ -1596,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>138.6800000000002</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -1607,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>130.5650000000002</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
@@ -1618,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>136.5250000000002</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
@@ -1629,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>139.2700000000002</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
@@ -1640,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>143.8900000000002</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
@@ -1651,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>127.6200000000001</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38">
@@ -1662,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>144.8550000000001</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39">
@@ -1673,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>145.9100000000001</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40">
@@ -1684,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>137.7700000000001</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41">
@@ -1695,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>143.3650000000001</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1742,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>38.68000000000021</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1753,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>30.56500000000023</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -1764,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>36.52500000000023</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1775,7 +1792,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>39.27000000000021</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1786,7 +1803,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>43.89000000000019</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -1797,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>27.62000000000008</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -1808,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>44.85500000000008</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -1819,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>45.91000000000008</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -1830,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>37.77000000000007</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -1841,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>43.36500000000007</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1899,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1910,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1921,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1932,7 +1949,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1943,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1954,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1965,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1976,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>22.695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1987,7 +2004,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2108,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.905</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2119,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.405</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2130,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2141,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.495</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2152,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2166,7 +2183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2306,7 +2323,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2317,9 +2334,42 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
